--- a/biology/Médecine/Sénologue/Sénologue.xlsx
+++ b/biology/Médecine/Sénologue/Sénologue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9nologue</t>
+          <t>Sénologue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sénologue est un médecin spécialisé dans l'étude du sein, de ses pathologies et le traitement de ses maladies. 
 En France, ce n'est pas une spécialité médicale reconnue. Les gynécologues médicaux et chirurgiens gynécologiques sont qualifiés pour la prise en charge des pathologies mammaires.
